--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="34">
   <si>
     <t>BikeName</t>
   </si>

--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="34">
   <si>
     <t>BikeName</t>
   </si>
